--- a/data/trans_dic/P23_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Edad-trans_dic.xlsx
@@ -549,32 +549,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>41,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>36,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,56%</t>
+          <t>36,13%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>34,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>35,57%</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,11; 36,41</t>
+          <t>37,17; 46,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,37; 24,88</t>
+          <t>32,12; 41,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,62; 27,94</t>
+          <t>31,72; 40,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,12; 23,74</t>
+          <t>29,95; 39,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,38; 30,78</t>
+          <t>36,07; 42,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,43; 21,88</t>
+          <t>32,64; 38,7</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40,08%</t>
+          <t>54,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,1%</t>
+          <t>50,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>40,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,87%</t>
+          <t>46,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>46,07%</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,79; 44,16</t>
+          <t>50,47; 57,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,33; 35,08</t>
+          <t>47,08; 54,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,6; 37,52</t>
+          <t>33,48; 41,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,77; 27,53</t>
+          <t>36,41; 44,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,81; 39,53</t>
+          <t>43,9; 49,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,22; 28,89</t>
+          <t>43,26; 48,83</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>36,78%</t>
+          <t>53,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>47,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,7%</t>
+          <t>37,33%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>34,25%</t>
+          <t>45,05%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>41,24%</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,25; 40,96</t>
+          <t>48,86; 57,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,35; 30,36</t>
+          <t>43,94; 51,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,41; 35,42</t>
+          <t>34,14; 41,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,84; 25,98</t>
+          <t>31,68; 39,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,73; 37,08</t>
+          <t>42,14; 47,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,99; 26,9</t>
+          <t>38,5; 43,83</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>41,65%</t>
+          <t>45,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>45,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,45%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>39,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,55%</t>
+          <t>36,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>42,27%</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,57; 45,77</t>
+          <t>40,68; 49,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,55; 29,46</t>
+          <t>41,23; 49,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,33; 37,07</t>
+          <t>23,93; 32,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,51; 23,42</t>
+          <t>34,33; 42,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,75; 40,37</t>
+          <t>33,72; 39,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,22; 25,28</t>
+          <t>39,03; 45,13</t>
         </is>
       </c>
     </row>
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>33,28%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>36,41%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>25,56%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,1; 32,91</t>
+          <t>28,53; 37,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,96; 33,45</t>
+          <t>31,34; 41,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,74; 25,45</t>
+          <t>8,82; 15,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,44; 22,51</t>
+          <t>11,92; 19,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,15; 28,28</t>
+          <t>19,42; 25,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,62; 27,0</t>
+          <t>22,78; 29,13</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>7,78%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,5; 14,44</t>
+          <t>11,82; 18,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,18; 15,23</t>
+          <t>10,82; 17,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,17</t>
+          <t>0,84; 2,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,25</t>
+          <t>1,86; 4,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,09; 9,07</t>
+          <t>5,94; 8,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,7; 9,49</t>
+          <t>6,26; 9,43</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>39,55%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>33,39%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30,75; 33,81</t>
+          <t>40,34; 43,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,54; 25,15</t>
+          <t>37,73; 41,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,51; 25,57</t>
+          <t>24,12; 27,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,79; 17,92</t>
+          <t>25,87; 28,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,84; 29,05</t>
+          <t>32,55; 35,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,41; 20,78</t>
+          <t>32,14; 34,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P23_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Edad-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,17; 46,38</t>
+          <t>37,09; 46,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,12; 41,17</t>
+          <t>32,05; 40,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,72; 40,56</t>
+          <t>31,89; 40,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,95; 39,15</t>
+          <t>30,18; 39,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,07; 42,2</t>
+          <t>36,14; 42,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,64; 38,7</t>
+          <t>32,23; 38,81</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>50,47; 57,99</t>
+          <t>50,6; 58,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,08; 54,87</t>
+          <t>47,16; 54,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,48; 41,45</t>
+          <t>33,11; 41,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,41; 44,61</t>
+          <t>36,59; 45,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,9; 49,08</t>
+          <t>43,8; 49,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,26; 48,83</t>
+          <t>43,09; 49,09</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>48,86; 57,25</t>
+          <t>49,44; 57,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,94; 51,72</t>
+          <t>43,67; 51,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,14; 41,68</t>
+          <t>32,82; 40,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,68; 39,21</t>
+          <t>31,38; 38,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>42,14; 47,62</t>
+          <t>42,15; 47,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,5; 43,83</t>
+          <t>38,4; 44,02</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,68; 49,37</t>
+          <t>40,83; 50,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,23; 49,76</t>
+          <t>40,88; 49,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,93; 32,07</t>
+          <t>24,28; 32,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,33; 42,62</t>
+          <t>34,65; 43,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,72; 39,63</t>
+          <t>33,71; 39,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,03; 45,13</t>
+          <t>39,45; 45,57</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,53; 37,88</t>
+          <t>28,89; 38,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,34; 41,38</t>
+          <t>32,1; 41,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,82; 15,21</t>
+          <t>8,54; 15,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,92; 19,15</t>
+          <t>11,99; 19,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,42; 25,09</t>
+          <t>19,3; 25,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,78; 29,13</t>
+          <t>22,45; 28,67</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,82; 18,05</t>
+          <t>12,31; 18,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,82; 17,64</t>
+          <t>10,67; 17,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,76</t>
+          <t>0,85; 2,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,77</t>
+          <t>1,97; 4,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,94; 8,84</t>
+          <t>5,98; 8,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,26; 9,43</t>
+          <t>6,24; 9,63</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40,34; 43,77</t>
+          <t>40,56; 43,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>37,73; 41,11</t>
+          <t>37,85; 41,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,12; 27,05</t>
+          <t>24,15; 27,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,87; 28,91</t>
+          <t>25,91; 28,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>32,55; 35,01</t>
+          <t>32,66; 35,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,14; 34,54</t>
+          <t>32,19; 34,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P23_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,09; 46,12</t>
+          <t>37,45; 46,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,05; 40,56</t>
+          <t>31,87; 41,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,89; 40,6</t>
+          <t>31,9; 40,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,18; 39,13</t>
+          <t>30,11; 39,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,14; 42,02</t>
+          <t>35,94; 42,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,23; 38,81</t>
+          <t>32,38; 38,71</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>50,6; 58,24</t>
+          <t>50,16; 57,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,16; 54,5</t>
+          <t>46,93; 54,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,11; 41,52</t>
+          <t>33,04; 41,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,59; 45,06</t>
+          <t>36,89; 44,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,8; 49,38</t>
+          <t>43,5; 49,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,09; 49,09</t>
+          <t>43,04; 48,8</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>49,44; 57,45</t>
+          <t>48,9; 57,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,67; 51,77</t>
+          <t>43,76; 51,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,82; 40,67</t>
+          <t>33,68; 41,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,38; 38,83</t>
+          <t>31,3; 38,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>42,15; 47,65</t>
+          <t>42,28; 47,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,4; 44,02</t>
+          <t>38,87; 43,99</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,83; 50,07</t>
+          <t>41,36; 49,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,88; 49,93</t>
+          <t>41,4; 49,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,28; 32,16</t>
+          <t>24,37; 32,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,65; 43,35</t>
+          <t>34,72; 42,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,71; 39,8</t>
+          <t>33,81; 39,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,45; 45,57</t>
+          <t>39,35; 45,18</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,89; 38,63</t>
+          <t>28,48; 37,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,1; 41,22</t>
+          <t>31,85; 41,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,54; 15,11</t>
+          <t>8,38; 15,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,99; 19,33</t>
+          <t>11,88; 19,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,3; 25,06</t>
+          <t>19,46; 25,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,45; 28,67</t>
+          <t>22,42; 28,81</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,31; 18,76</t>
+          <t>12,15; 18,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,67; 17,22</t>
+          <t>11,18; 17,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,89</t>
+          <t>0,86; 2,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,93</t>
+          <t>1,82; 4,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,98; 8,91</t>
+          <t>6,05; 9,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,24; 9,63</t>
+          <t>6,18; 9,41</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40,56; 43,96</t>
+          <t>40,64; 44,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>37,85; 41,37</t>
+          <t>37,85; 41,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,15; 27,09</t>
+          <t>24,13; 27,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,91; 28,95</t>
+          <t>25,88; 29,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>32,66; 35,01</t>
+          <t>32,66; 34,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,19; 34,56</t>
+          <t>32,27; 34,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P23_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Edad-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +523,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente</t>
+          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -587,11 +615,14 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -611,22 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>34,7%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>36,13%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>34,52%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>26,89%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>39,04%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>35,57%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>30,91%</t>
         </is>
       </c>
     </row>
@@ -649,29 +695,44 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>29,97; 39,23</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>31,9; 40,13</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>30,11; 39,23</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22,83; 31,52</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>35,94; 42,18</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>32,38; 38,71</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27,78; 34,33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -691,22 +752,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>45,67%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>37,4%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>40,73%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>38,08%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>46,5%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>46,07%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>41,96%</t>
         </is>
       </c>
     </row>
@@ -729,29 +805,44 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>41,38; 49,71</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>33,04; 41,67</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>36,89; 44,79</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>34,25; 42,45</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>43,5; 49,07</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>43,04; 48,8</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>38,97; 44,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -771,22 +862,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>39,97%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>37,33%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>34,97%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33,39%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>45,05%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>41,24%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>36,7%</t>
         </is>
       </c>
     </row>
@@ -809,29 +915,44 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>36,45; 44,05</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>33,68; 41,25</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>31,3; 38,55</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>29,87; 37,21</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>42,28; 47,8</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>38,87; 43,99</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>34,0; 39,49</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -851,22 +972,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>43,0%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>28,11%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>39,02%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>35,68%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>36,69%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>42,27%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>39,34%</t>
         </is>
       </c>
     </row>
@@ -889,29 +1025,44 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>38,66; 47,22</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>24,37; 32,47</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>34,72; 42,91</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>31,72; 39,28</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>33,81; 39,86</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>39,35; 45,18</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>36,5; 42,11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -931,22 +1082,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>30,72%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>11,61%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>15,15%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>23,01%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>22,21%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>25,56%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26,8%</t>
         </is>
       </c>
     </row>
@@ -969,29 +1135,44 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>26,19; 35,2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>8,38; 15,17</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>11,88; 19,09</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>19,06; 26,96</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>19,46; 25,21</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>22,42; 28,81</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>23,8; 29,92</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1001,32 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>7,95%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9,4%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>10,58%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>12,39%</t>
         </is>
       </c>
     </row>
@@ -1039,39 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,15; 18,31</t>
+          <t>14,17; 22,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,18; 17,54</t>
+          <t>12,44; 21,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,87</t>
+          <t>13,22; 21,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,59</t>
+          <t>0,82; 3,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,05; 9,21</t>
+          <t>3,21; 8,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,18; 9,41</t>
+          <t>5,51; 10,98</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>7,47; 12,03</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>8,44; 13,45</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>10,16; 15,46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1081,32 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>42,29%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>39,55%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>2,01%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,98%</t>
         </is>
       </c>
     </row>
@@ -1119,54 +1345,180 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>6,95; 15,23</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7,32; 15,45</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6,76; 13,34</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 3,36</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 3,06</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 4,3</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 7,3</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3,22; 7,12</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3,53; 6,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>42,29%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>39,55%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>35,07%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>25,55%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>27,45%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>26,12%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>33,79%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>33,39%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>30,5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>40,64; 44,04</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>37,85; 41,3</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>33,65; 36,91</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>24,13; 27,2</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>25,88; 29,07</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>24,63; 27,82</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>32,66; 34,94</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>32,27; 34,54</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>29,35; 31,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P23_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
+          <t>Población que fuma diariamente tabaco y/o marihuana/hachís</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,45; 46,62</t>
+          <t>37,89; 46,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,87; 41,09</t>
+          <t>32,07; 41,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,97; 39,23</t>
+          <t>30,18; 39,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,9; 40,13</t>
+          <t>32,4; 41,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,11; 39,23</t>
+          <t>30,43; 39,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,83; 31,52</t>
+          <t>22,95; 31,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,94; 42,18</t>
+          <t>36,03; 42,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,38; 38,71</t>
+          <t>32,51; 38,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,78; 34,33</t>
+          <t>27,88; 34,66</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>50,16; 57,85</t>
+          <t>50,58; 57,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46,93; 54,42</t>
+          <t>46,89; 54,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,38; 49,71</t>
+          <t>41,45; 49,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,04; 41,67</t>
+          <t>33,77; 41,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,89; 44,79</t>
+          <t>37,16; 44,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,25; 42,45</t>
+          <t>33,9; 41,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,5; 49,07</t>
+          <t>44,09; 49,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,04; 48,8</t>
+          <t>43,3; 49,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,97; 44,86</t>
+          <t>39,13; 44,79</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>48,9; 57,73</t>
+          <t>49,65; 57,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,76; 51,26</t>
+          <t>43,94; 51,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,45; 44,05</t>
+          <t>36,33; 44,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33,68; 41,25</t>
+          <t>33,85; 41,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,3; 38,55</t>
+          <t>31,55; 38,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,87; 37,21</t>
+          <t>30,07; 37,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>42,28; 47,8</t>
+          <t>42,34; 47,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,87; 43,99</t>
+          <t>38,73; 43,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>34,0; 39,49</t>
+          <t>34,21; 39,78</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>41,36; 49,86</t>
+          <t>41,04; 49,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,4; 49,79</t>
+          <t>41,64; 50,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>38,66; 47,22</t>
+          <t>39,19; 47,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,37; 32,47</t>
+          <t>24,45; 32,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,72; 42,91</t>
+          <t>35,05; 43,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,72; 39,28</t>
+          <t>31,78; 39,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,81; 39,86</t>
+          <t>33,74; 39,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,35; 45,18</t>
+          <t>39,18; 45,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,5; 42,11</t>
+          <t>36,66; 42,58</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,48; 37,92</t>
+          <t>28,41; 38,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,85; 41,98</t>
+          <t>31,81; 41,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,19; 35,2</t>
+          <t>26,37; 35,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,38; 15,17</t>
+          <t>8,88; 15,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,88; 19,09</t>
+          <t>11,78; 19,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,06; 26,96</t>
+          <t>19,35; 27,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,46; 25,21</t>
+          <t>19,34; 25,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,42; 28,81</t>
+          <t>22,62; 28,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,8; 29,92</t>
+          <t>23,87; 30,05</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,17; 22,51</t>
+          <t>14,33; 22,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,44; 21,46</t>
+          <t>12,12; 21,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,22; 21,68</t>
+          <t>13,64; 21,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,83</t>
+          <t>0,82; 4,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,21; 8,64</t>
+          <t>3,25; 8,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,51; 10,98</t>
+          <t>5,41; 11,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,47; 12,03</t>
+          <t>7,51; 11,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,44; 13,45</t>
+          <t>8,16; 13,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,16; 15,46</t>
+          <t>10,03; 14,94</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,95; 15,23</t>
+          <t>7,15; 15,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,32; 15,45</t>
+          <t>7,06; 15,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,76; 13,34</t>
+          <t>6,72; 13,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,36</t>
+          <t>0,34; 3,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,06</t>
+          <t>0,26; 2,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,3</t>
+          <t>0,69; 4,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,45; 7,3</t>
+          <t>3,38; 7,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,22; 7,12</t>
+          <t>3,29; 7,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,53; 6,87</t>
+          <t>3,38; 6,76</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>40,64; 44,04</t>
+          <t>40,46; 44,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>37,85; 41,3</t>
+          <t>37,86; 41,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>33,65; 36,91</t>
+          <t>33,41; 36,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,13; 27,2</t>
+          <t>24,11; 27,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,88; 29,07</t>
+          <t>25,88; 28,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,63; 27,82</t>
+          <t>24,68; 27,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>32,66; 34,94</t>
+          <t>32,61; 34,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>32,27; 34,54</t>
+          <t>32,16; 34,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>29,35; 31,64</t>
+          <t>29,29; 31,62</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que fuma diariamente tabaco y/o marihuana/hachís</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>206064</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>166085</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>145554</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>168886</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>148172</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>106400</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>374950</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>314258</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>251953</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>186812; 230525</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>145629; 187643</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>126605; 165208</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>151451; 192196</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>130602; 170022</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>90812; 123967</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>346097; 404483</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>287151; 343744</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>227263; 282569</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>398993</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>349164</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>269701</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>233910</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>248534</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>214575</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>632902</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>597697</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>484276</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>372038; 425464</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>322158; 374929</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>244748; 293458</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>211202; 259601</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>226740; 272211</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>191061; 235565</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>600039; 675295</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>561726; 636282</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>451560; 516842</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>340973</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>325330</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>266994</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>257461</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>248239</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>220544</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>598434</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>573569</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>487538</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>317087; 367317</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>299150; 350009</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>242667; 295029</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>233501; 285075</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>223987; 275197</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>198589; 244723</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>562393; 633562</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>538582; 610567</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>454501; 528498</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>234735</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>279782</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>277798</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>144966</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>240465</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>230829</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>379701</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>520247</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>508627</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>213044; 259258</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>255941; 311998</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>253205; 304927</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>126093; 166612</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>215977; 267391</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>205606; 256156</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>349117; 413668</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>482263; 558525</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>474020; 550508</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>128691</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>156369</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>146836</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>46888</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>67829</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>114087</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>175578</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>224198</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>260924</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>109848; 148107</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>136621; 178559</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>126011; 169646</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>35857; 61454</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>52747; 85471</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>95907; 136149</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>152935; 201462</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>198465; 251835</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>232382; 292545</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>53173</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>51254</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>58232</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6585</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>30027</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>59758</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>70257</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>88259</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>41938; 66669</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>37554; 66987</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>45592; 72535</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2826; 14123</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>11513; 29630</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>20451; 43407</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>47755; 75126</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>54166; 88616</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>71407; 106354</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>22654</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>27052</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>24619</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>4635</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>4029</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>8014</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>27288</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>31080</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>32633</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>15017; 32851</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>17630; 38738</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>17213; 33697</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1130; 10701</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1009; 11236</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2770; 16241</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>18368; 38526</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>21035; 45472</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>22126; 44301</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1349</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1270</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1107</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2194</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>2168</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1385281</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1355036</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1189733</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>863330</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>976270</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>924476</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2248611</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>2331306</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>2114209</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1325414; 1442511</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1296941; 1415781</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1133536; 1249039</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>814610; 918767</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>920492; 1029014</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>873361; 978159</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>2170312; 2328069</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>2245409; 2417827</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>2029989; 2191972</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>